--- a/docs/_static/unit_conversion_energyscope.xlsx
+++ b/docs/_static/unit_conversion_energyscope.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5245" uniqueCount="1306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5245" uniqueCount="1307">
   <si>
     <t>Name</t>
   </si>
@@ -3422,7 +3422,10 @@
     <t>capacity factor (0.85): (Moret, 2017), facility capacity (1 Mt CO2/year): (Sacchi, 2022)</t>
   </si>
   <si>
-    <t>Capacity (2 kWe PEM)</t>
+    <t>Capacity (2 kWe PEM), cogeneration (2.64 kWe/kWth): (Moret, 2017)</t>
+  </si>
+  <si>
+    <t>allocation factor (0.123336767415877): (Sacchi, 2022)</t>
   </si>
   <si>
     <t>Capacity (10 kW)</t>
@@ -8736,7 +8739,7 @@
         <v>657</v>
       </c>
       <c r="D187">
-        <f>1 / 2</f>
+        <f> 2.64 / 2</f>
         <v>0</v>
       </c>
       <c r="E187" t="s">
@@ -8760,16 +8763,17 @@
         <v>657</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <f>3.6/0.123336767415877</f>
+        <v>0</v>
       </c>
       <c r="E188" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="F188" t="s">
         <v>1074</v>
       </c>
       <c r="G188" t="s">
-        <v>1089</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -8793,7 +8797,7 @@
         <v>1076</v>
       </c>
       <c r="G189" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -8841,7 +8845,7 @@
         <v>1076</v>
       </c>
       <c r="G191" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -8912,7 +8916,7 @@
         <v>1073</v>
       </c>
       <c r="G194" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -8936,7 +8940,7 @@
         <v>1076</v>
       </c>
       <c r="G195" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -8984,7 +8988,7 @@
         <v>1076</v>
       </c>
       <c r="G197" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -9008,7 +9012,7 @@
         <v>1074</v>
       </c>
       <c r="G198" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -9101,7 +9105,7 @@
         <v>1076</v>
       </c>
       <c r="G202" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -9172,7 +9176,7 @@
         <v>1073</v>
       </c>
       <c r="G205" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -9196,7 +9200,7 @@
         <v>1073</v>
       </c>
       <c r="G206" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -9220,7 +9224,7 @@
         <v>1076</v>
       </c>
       <c r="G207" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -9291,7 +9295,7 @@
         <v>1073</v>
       </c>
       <c r="G210" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -9315,7 +9319,7 @@
         <v>1076</v>
       </c>
       <c r="G211" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -9362,7 +9366,7 @@
         <v>1076</v>
       </c>
       <c r="G213" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -9410,7 +9414,7 @@
         <v>1076</v>
       </c>
       <c r="G215" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -9434,7 +9438,7 @@
         <v>1076</v>
       </c>
       <c r="G216" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -9482,7 +9486,7 @@
         <v>1073</v>
       </c>
       <c r="G218" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -9529,7 +9533,7 @@
         <v>1076</v>
       </c>
       <c r="G220" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -9577,7 +9581,7 @@
         <v>1076</v>
       </c>
       <c r="G222" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -9625,7 +9629,7 @@
         <v>1076</v>
       </c>
       <c r="G224" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -9696,7 +9700,7 @@
         <v>1073</v>
       </c>
       <c r="G227" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -9720,7 +9724,7 @@
         <v>1076</v>
       </c>
       <c r="G228" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -9814,7 +9818,7 @@
         <v>1076</v>
       </c>
       <c r="G232" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -9838,7 +9842,7 @@
         <v>1074</v>
       </c>
       <c r="G233" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -9931,7 +9935,7 @@
         <v>1076</v>
       </c>
       <c r="G237" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -9979,7 +9983,7 @@
         <v>1073</v>
       </c>
       <c r="G239" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -10003,7 +10007,7 @@
         <v>1076</v>
       </c>
       <c r="G240" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -10051,7 +10055,7 @@
         <v>1073</v>
       </c>
       <c r="G242" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -10074,7 +10078,7 @@
         <v>1073</v>
       </c>
       <c r="G243" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -10097,7 +10101,7 @@
         <v>1073</v>
       </c>
       <c r="G244" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -10121,7 +10125,7 @@
         <v>1076</v>
       </c>
       <c r="G245" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -10145,7 +10149,7 @@
         <v>1074</v>
       </c>
       <c r="G246" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -10215,7 +10219,7 @@
         <v>1073</v>
       </c>
       <c r="G249" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -10239,7 +10243,7 @@
         <v>1076</v>
       </c>
       <c r="G250" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -10287,7 +10291,7 @@
         <v>1076</v>
       </c>
       <c r="G252" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -10335,7 +10339,7 @@
         <v>1076</v>
       </c>
       <c r="G254" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -10359,7 +10363,7 @@
         <v>1074</v>
       </c>
       <c r="G255" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -10383,7 +10387,7 @@
         <v>1074</v>
       </c>
       <c r="G256" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -10453,7 +10457,7 @@
         <v>1084</v>
       </c>
       <c r="G259" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -10501,7 +10505,7 @@
         <v>1074</v>
       </c>
       <c r="G261" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -10572,7 +10576,7 @@
         <v>1074</v>
       </c>
       <c r="G264" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -10596,7 +10600,7 @@
         <v>1076</v>
       </c>
       <c r="G265" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -10620,7 +10624,7 @@
         <v>1074</v>
       </c>
       <c r="G266" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -10644,7 +10648,7 @@
         <v>1076</v>
       </c>
       <c r="G267" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -10692,7 +10696,7 @@
         <v>1076</v>
       </c>
       <c r="G269" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -10716,7 +10720,7 @@
         <v>1074</v>
       </c>
       <c r="G270" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -10740,7 +10744,7 @@
         <v>1074</v>
       </c>
       <c r="G271" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -10764,7 +10768,7 @@
         <v>1076</v>
       </c>
       <c r="G272" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -10812,7 +10816,7 @@
         <v>1074</v>
       </c>
       <c r="G274" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -10836,7 +10840,7 @@
         <v>1074</v>
       </c>
       <c r="G275" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -10860,7 +10864,7 @@
         <v>1082</v>
       </c>
       <c r="G276" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -10907,7 +10911,7 @@
         <v>1082</v>
       </c>
       <c r="G278" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -10954,7 +10958,7 @@
         <v>1082</v>
       </c>
       <c r="G280" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -11001,7 +11005,7 @@
         <v>1082</v>
       </c>
       <c r="G282" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -11048,7 +11052,7 @@
         <v>1076</v>
       </c>
       <c r="G284" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -11072,7 +11076,7 @@
         <v>1074</v>
       </c>
       <c r="G285" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -11167,7 +11171,7 @@
         <v>1073</v>
       </c>
       <c r="G289" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -11191,7 +11195,7 @@
         <v>1076</v>
       </c>
       <c r="G290" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -11215,7 +11219,7 @@
         <v>1074</v>
       </c>
       <c r="G291" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -11262,7 +11266,7 @@
         <v>1073</v>
       </c>
       <c r="G293" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -11286,7 +11290,7 @@
         <v>1074</v>
       </c>
       <c r="G294" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -11310,7 +11314,7 @@
         <v>1074</v>
       </c>
       <c r="G295" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -11334,7 +11338,7 @@
         <v>1076</v>
       </c>
       <c r="G296" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -11381,7 +11385,7 @@
         <v>1076</v>
       </c>
       <c r="G298" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -11429,7 +11433,7 @@
         <v>1076</v>
       </c>
       <c r="G300" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -11477,7 +11481,7 @@
         <v>1076</v>
       </c>
       <c r="G302" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -11525,7 +11529,7 @@
         <v>1076</v>
       </c>
       <c r="G304" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -11621,7 +11625,7 @@
         <v>1076</v>
       </c>
       <c r="G308" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -11693,7 +11697,7 @@
         <v>1076</v>
       </c>
       <c r="G311" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -11765,7 +11769,7 @@
         <v>1076</v>
       </c>
       <c r="G314" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -11813,7 +11817,7 @@
         <v>1076</v>
       </c>
       <c r="G316" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -11861,7 +11865,7 @@
         <v>1076</v>
       </c>
       <c r="G318" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -11909,7 +11913,7 @@
         <v>1074</v>
       </c>
       <c r="G320" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -11957,7 +11961,7 @@
         <v>1084</v>
       </c>
       <c r="G322" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -11981,7 +11985,7 @@
         <v>1076</v>
       </c>
       <c r="G323" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -12029,7 +12033,7 @@
         <v>1076</v>
       </c>
       <c r="G325" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -12053,7 +12057,7 @@
         <v>1074</v>
       </c>
       <c r="G326" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -12077,7 +12081,7 @@
         <v>1076</v>
       </c>
       <c r="G327" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -12101,7 +12105,7 @@
         <v>1074</v>
       </c>
       <c r="G328" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -12125,7 +12129,7 @@
         <v>1073</v>
       </c>
       <c r="G329" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -12172,7 +12176,7 @@
         <v>1076</v>
       </c>
       <c r="G331" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -12220,7 +12224,7 @@
         <v>1076</v>
       </c>
       <c r="G333" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -12268,7 +12272,7 @@
         <v>1076</v>
       </c>
       <c r="G335" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -12316,7 +12320,7 @@
         <v>1076</v>
       </c>
       <c r="G337" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -12387,7 +12391,7 @@
         <v>1073</v>
       </c>
       <c r="G340" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -12411,7 +12415,7 @@
         <v>1076</v>
       </c>
       <c r="G341" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -12459,7 +12463,7 @@
         <v>1076</v>
       </c>
       <c r="G343" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -12507,7 +12511,7 @@
         <v>1076</v>
       </c>
       <c r="G345" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -12555,7 +12559,7 @@
         <v>1076</v>
       </c>
       <c r="G347" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -12579,7 +12583,7 @@
         <v>1074</v>
       </c>
       <c r="G348" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -12672,7 +12676,7 @@
         <v>1076</v>
       </c>
       <c r="G352" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -12720,7 +12724,7 @@
         <v>1076</v>
       </c>
       <c r="G354" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -12768,7 +12772,7 @@
         <v>1073</v>
       </c>
       <c r="G356" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -12791,7 +12795,7 @@
         <v>1073</v>
       </c>
       <c r="G357" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -12815,7 +12819,7 @@
         <v>1073</v>
       </c>
       <c r="G358" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -12838,7 +12842,7 @@
         <v>1073</v>
       </c>
       <c r="G359" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -12862,7 +12866,7 @@
         <v>1076</v>
       </c>
       <c r="G360" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -12886,7 +12890,7 @@
         <v>1074</v>
       </c>
       <c r="G361" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -12979,7 +12983,7 @@
         <v>1076</v>
       </c>
       <c r="G365" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -13026,7 +13030,7 @@
         <v>1076</v>
       </c>
       <c r="G367" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -13098,7 +13102,7 @@
         <v>1085</v>
       </c>
       <c r="G370" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -13122,7 +13126,7 @@
         <v>1081</v>
       </c>
       <c r="G371" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -13146,7 +13150,7 @@
         <v>1085</v>
       </c>
       <c r="G372" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -13170,7 +13174,7 @@
         <v>1081</v>
       </c>
       <c r="G373" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -13194,7 +13198,7 @@
         <v>1085</v>
       </c>
       <c r="G374" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -13218,7 +13222,7 @@
         <v>1081</v>
       </c>
       <c r="G375" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -13242,7 +13246,7 @@
         <v>1085</v>
       </c>
       <c r="G376" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -13266,7 +13270,7 @@
         <v>1081</v>
       </c>
       <c r="G377" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -13290,7 +13294,7 @@
         <v>1085</v>
       </c>
       <c r="G378" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -13314,7 +13318,7 @@
         <v>1081</v>
       </c>
       <c r="G379" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -13338,7 +13342,7 @@
         <v>1085</v>
       </c>
       <c r="G380" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -13362,7 +13366,7 @@
         <v>1081</v>
       </c>
       <c r="G381" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -13386,7 +13390,7 @@
         <v>1085</v>
       </c>
       <c r="G382" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -13410,7 +13414,7 @@
         <v>1081</v>
       </c>
       <c r="G383" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -13434,7 +13438,7 @@
         <v>1085</v>
       </c>
       <c r="G384" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -13458,7 +13462,7 @@
         <v>1081</v>
       </c>
       <c r="G385" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -13482,7 +13486,7 @@
         <v>1085</v>
       </c>
       <c r="G386" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -13506,7 +13510,7 @@
         <v>1081</v>
       </c>
       <c r="G387" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -13530,7 +13534,7 @@
         <v>1074</v>
       </c>
       <c r="G388" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -13554,7 +13558,7 @@
         <v>1074</v>
       </c>
       <c r="G389" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -13578,7 +13582,7 @@
         <v>1084</v>
       </c>
       <c r="G390" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -13602,7 +13606,7 @@
         <v>1076</v>
       </c>
       <c r="G391" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -13626,7 +13630,7 @@
         <v>1074</v>
       </c>
       <c r="G392" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -13650,7 +13654,7 @@
         <v>1076</v>
       </c>
       <c r="G393" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -13674,7 +13678,7 @@
         <v>1074</v>
       </c>
       <c r="G394" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -13698,7 +13702,7 @@
         <v>1076</v>
       </c>
       <c r="G395" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -13722,7 +13726,7 @@
         <v>1074</v>
       </c>
       <c r="G396" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -13746,7 +13750,7 @@
         <v>1074</v>
       </c>
       <c r="G397" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -13770,7 +13774,7 @@
         <v>1076</v>
       </c>
       <c r="G398" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -13818,7 +13822,7 @@
         <v>1076</v>
       </c>
       <c r="G400" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -13842,7 +13846,7 @@
         <v>1074</v>
       </c>
       <c r="G401" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -13866,7 +13870,7 @@
         <v>1076</v>
       </c>
       <c r="G402" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -13890,7 +13894,7 @@
         <v>1074</v>
       </c>
       <c r="G403" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -13914,7 +13918,7 @@
         <v>1076</v>
       </c>
       <c r="G404" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -13938,7 +13942,7 @@
         <v>1074</v>
       </c>
       <c r="G405" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -13986,7 +13990,7 @@
         <v>1084</v>
       </c>
       <c r="G407" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -14010,7 +14014,7 @@
         <v>1076</v>
       </c>
       <c r="G408" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -14058,7 +14062,7 @@
         <v>1076</v>
       </c>
       <c r="G410" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -14106,7 +14110,7 @@
         <v>1076</v>
       </c>
       <c r="G412" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -14130,7 +14134,7 @@
         <v>1074</v>
       </c>
       <c r="G413" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -14154,7 +14158,7 @@
         <v>1076</v>
       </c>
       <c r="G414" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -14178,7 +14182,7 @@
         <v>1074</v>
       </c>
       <c r="G415" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -14202,7 +14206,7 @@
         <v>1076</v>
       </c>
       <c r="G416" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -14226,7 +14230,7 @@
         <v>1074</v>
       </c>
       <c r="G417" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -14250,7 +14254,7 @@
         <v>1074</v>
       </c>
       <c r="G418" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -14274,7 +14278,7 @@
         <v>1074</v>
       </c>
       <c r="G419" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -14298,7 +14302,7 @@
         <v>1076</v>
       </c>
       <c r="G420" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -14322,7 +14326,7 @@
         <v>1074</v>
       </c>
       <c r="G421" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -14346,7 +14350,7 @@
         <v>1074</v>
       </c>
       <c r="G422" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -14370,7 +14374,7 @@
         <v>1076</v>
       </c>
       <c r="G423" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -14394,7 +14398,7 @@
         <v>1074</v>
       </c>
       <c r="G424" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -14418,7 +14422,7 @@
         <v>1074</v>
       </c>
       <c r="G425" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -14442,7 +14446,7 @@
         <v>1076</v>
       </c>
       <c r="G426" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -14466,7 +14470,7 @@
         <v>1074</v>
       </c>
       <c r="G427" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -14490,7 +14494,7 @@
         <v>1076</v>
       </c>
       <c r="G428" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -14538,7 +14542,7 @@
         <v>1076</v>
       </c>
       <c r="G430" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -14586,7 +14590,7 @@
         <v>1076</v>
       </c>
       <c r="G432" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -14610,7 +14614,7 @@
         <v>1074</v>
       </c>
       <c r="G433" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -14657,7 +14661,7 @@
         <v>1073</v>
       </c>
       <c r="G435" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -14681,7 +14685,7 @@
         <v>1074</v>
       </c>
       <c r="G436" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -14704,7 +14708,7 @@
         <v>1076</v>
       </c>
       <c r="G437" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -14751,7 +14755,7 @@
         <v>1076</v>
       </c>
       <c r="G439" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -14775,7 +14779,7 @@
         <v>1074</v>
       </c>
       <c r="G440" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -14799,7 +14803,7 @@
         <v>1076</v>
       </c>
       <c r="G441" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -14823,7 +14827,7 @@
         <v>1074</v>
       </c>
       <c r="G442" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -14847,7 +14851,7 @@
         <v>1076</v>
       </c>
       <c r="G443" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -14895,7 +14899,7 @@
         <v>1082</v>
       </c>
       <c r="G445" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -14942,7 +14946,7 @@
         <v>1082</v>
       </c>
       <c r="G447" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -14989,7 +14993,7 @@
         <v>1082</v>
       </c>
       <c r="G449" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -15060,7 +15064,7 @@
         <v>1076</v>
       </c>
       <c r="G452" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -15107,7 +15111,7 @@
         <v>1076</v>
       </c>
       <c r="G454" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -15271,7 +15275,7 @@
         <v>1082</v>
       </c>
       <c r="G461" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -15318,7 +15322,7 @@
         <v>1074</v>
       </c>
       <c r="G463" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -15342,7 +15346,7 @@
         <v>1085</v>
       </c>
       <c r="G464" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -15390,7 +15394,7 @@
         <v>1083</v>
       </c>
       <c r="G466" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -15438,7 +15442,7 @@
         <v>1083</v>
       </c>
       <c r="G468" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="469" spans="1:7">
@@ -15486,7 +15490,7 @@
         <v>1082</v>
       </c>
       <c r="G470" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="471" spans="1:7">
@@ -15557,7 +15561,7 @@
         <v>1074</v>
       </c>
       <c r="G473" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="474" spans="1:7">
@@ -15581,7 +15585,7 @@
         <v>1074</v>
       </c>
       <c r="G474" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="475" spans="1:7">
@@ -15629,7 +15633,7 @@
         <v>1076</v>
       </c>
       <c r="G476" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -15677,7 +15681,7 @@
         <v>1076</v>
       </c>
       <c r="G478" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -15748,7 +15752,7 @@
         <v>1082</v>
       </c>
       <c r="G481" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="482" spans="1:7">
@@ -15795,7 +15799,7 @@
         <v>1076</v>
       </c>
       <c r="G483" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -15819,7 +15823,7 @@
         <v>1074</v>
       </c>
       <c r="G484" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="485" spans="1:7">
@@ -15843,7 +15847,7 @@
         <v>1083</v>
       </c>
       <c r="G485" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="486" spans="1:7">
@@ -15891,7 +15895,7 @@
         <v>1083</v>
       </c>
       <c r="G487" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="488" spans="1:7">
@@ -15939,7 +15943,7 @@
         <v>1083</v>
       </c>
       <c r="G489" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="490" spans="1:7">
@@ -15987,7 +15991,7 @@
         <v>1083</v>
       </c>
       <c r="G491" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="492" spans="1:7">
@@ -16035,7 +16039,7 @@
         <v>1083</v>
       </c>
       <c r="G493" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="494" spans="1:7">
@@ -16083,7 +16087,7 @@
         <v>1083</v>
       </c>
       <c r="G495" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="496" spans="1:7">
@@ -16131,7 +16135,7 @@
         <v>1083</v>
       </c>
       <c r="G497" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="498" spans="1:7">
@@ -16179,7 +16183,7 @@
         <v>1083</v>
       </c>
       <c r="G499" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -16227,7 +16231,7 @@
         <v>1083</v>
       </c>
       <c r="G501" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="502" spans="1:7">
@@ -16275,7 +16279,7 @@
         <v>1085</v>
       </c>
       <c r="G503" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="504" spans="1:7">
@@ -16323,7 +16327,7 @@
         <v>1085</v>
       </c>
       <c r="G505" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="506" spans="1:7">
@@ -16371,7 +16375,7 @@
         <v>1085</v>
       </c>
       <c r="G507" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -16419,7 +16423,7 @@
         <v>1085</v>
       </c>
       <c r="G509" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -16467,7 +16471,7 @@
         <v>1085</v>
       </c>
       <c r="G511" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -16515,7 +16519,7 @@
         <v>1085</v>
       </c>
       <c r="G513" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="514" spans="1:7">
@@ -16563,7 +16567,7 @@
         <v>1085</v>
       </c>
       <c r="G515" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -16611,7 +16615,7 @@
         <v>1085</v>
       </c>
       <c r="G517" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -16659,7 +16663,7 @@
         <v>1085</v>
       </c>
       <c r="G519" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -16683,7 +16687,7 @@
         <v>1081</v>
       </c>
       <c r="G520" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -16707,7 +16711,7 @@
         <v>1085</v>
       </c>
       <c r="G521" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -16731,7 +16735,7 @@
         <v>1081</v>
       </c>
       <c r="G522" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -16755,7 +16759,7 @@
         <v>1085</v>
       </c>
       <c r="G523" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -16779,7 +16783,7 @@
         <v>1081</v>
       </c>
       <c r="G524" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -16803,7 +16807,7 @@
         <v>1085</v>
       </c>
       <c r="G525" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -16827,7 +16831,7 @@
         <v>1081</v>
       </c>
       <c r="G526" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -16851,7 +16855,7 @@
         <v>1085</v>
       </c>
       <c r="G527" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -16875,7 +16879,7 @@
         <v>1081</v>
       </c>
       <c r="G528" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -16899,7 +16903,7 @@
         <v>1085</v>
       </c>
       <c r="G529" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -16923,7 +16927,7 @@
         <v>1081</v>
       </c>
       <c r="G530" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -16947,7 +16951,7 @@
         <v>1085</v>
       </c>
       <c r="G531" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -16971,7 +16975,7 @@
         <v>1081</v>
       </c>
       <c r="G532" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="533" spans="1:7">
@@ -16995,7 +16999,7 @@
         <v>1085</v>
       </c>
       <c r="G533" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -17019,7 +17023,7 @@
         <v>1081</v>
       </c>
       <c r="G534" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -17043,7 +17047,7 @@
         <v>1082</v>
       </c>
       <c r="G535" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -17280,7 +17284,7 @@
         <v>1074</v>
       </c>
       <c r="G545" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -17304,7 +17308,7 @@
         <v>1074</v>
       </c>
       <c r="G546" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -17328,7 +17332,7 @@
         <v>1076</v>
       </c>
       <c r="G547" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -17515,7 +17519,7 @@
         <v>1082</v>
       </c>
       <c r="G555" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="556" spans="1:7">
@@ -17562,7 +17566,7 @@
         <v>1082</v>
       </c>
       <c r="G557" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="558" spans="1:7">
@@ -17609,7 +17613,7 @@
         <v>1082</v>
       </c>
       <c r="G559" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="560" spans="1:7">
@@ -17680,7 +17684,7 @@
         <v>1082</v>
       </c>
       <c r="G562" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="563" spans="1:7">
@@ -18303,7 +18307,7 @@
         <v>1076</v>
       </c>
       <c r="G588" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="589" spans="1:7">
@@ -18351,7 +18355,7 @@
         <v>1074</v>
       </c>
       <c r="G590" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="591" spans="1:7">
@@ -18513,7 +18517,7 @@
         <v>1083</v>
       </c>
       <c r="G597" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="598" spans="1:7">
@@ -18561,7 +18565,7 @@
         <v>1083</v>
       </c>
       <c r="G599" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="600" spans="1:7">
@@ -18609,7 +18613,7 @@
         <v>1085</v>
       </c>
       <c r="G601" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="602" spans="1:7">
@@ -18655,7 +18659,7 @@
         <v>1073</v>
       </c>
       <c r="G603" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="604" spans="1:7">
@@ -18678,7 +18682,7 @@
         <v>1073</v>
       </c>
       <c r="G604" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="605" spans="1:7">
@@ -18702,7 +18706,7 @@
         <v>1085</v>
       </c>
       <c r="G605" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="606" spans="1:7">
@@ -18748,7 +18752,7 @@
         <v>1073</v>
       </c>
       <c r="G607" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="608" spans="1:7">
@@ -18771,7 +18775,7 @@
         <v>1073</v>
       </c>
       <c r="G608" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="609" spans="1:7">
@@ -18795,7 +18799,7 @@
         <v>1085</v>
       </c>
       <c r="G609" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="610" spans="1:7">
@@ -18841,7 +18845,7 @@
         <v>1073</v>
       </c>
       <c r="G611" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="612" spans="1:7">
@@ -18864,7 +18868,7 @@
         <v>1073</v>
       </c>
       <c r="G612" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="613" spans="1:7">
@@ -18888,7 +18892,7 @@
         <v>1085</v>
       </c>
       <c r="G613" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="614" spans="1:7">
@@ -18935,7 +18939,7 @@
         <v>1073</v>
       </c>
       <c r="G615" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="616" spans="1:7">
@@ -18958,7 +18962,7 @@
         <v>1073</v>
       </c>
       <c r="G616" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="617" spans="1:7">
@@ -18982,7 +18986,7 @@
         <v>1085</v>
       </c>
       <c r="G617" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="618" spans="1:7">
@@ -19028,7 +19032,7 @@
         <v>1073</v>
       </c>
       <c r="G619" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="620" spans="1:7">
@@ -19051,7 +19055,7 @@
         <v>1073</v>
       </c>
       <c r="G620" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="621" spans="1:7">
@@ -19075,7 +19079,7 @@
         <v>1083</v>
       </c>
       <c r="G621" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="622" spans="1:7">
@@ -19123,7 +19127,7 @@
         <v>1083</v>
       </c>
       <c r="G623" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="624" spans="1:7">
@@ -19171,7 +19175,7 @@
         <v>1083</v>
       </c>
       <c r="G625" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="626" spans="1:7">
@@ -19219,7 +19223,7 @@
         <v>1085</v>
       </c>
       <c r="G627" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="628" spans="1:7">
@@ -19267,7 +19271,7 @@
         <v>1085</v>
       </c>
       <c r="G629" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="630" spans="1:7">
@@ -19315,7 +19319,7 @@
         <v>1085</v>
       </c>
       <c r="G631" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="632" spans="1:7">
@@ -19363,7 +19367,7 @@
         <v>1085</v>
       </c>
       <c r="G633" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="634" spans="1:7">
@@ -19411,7 +19415,7 @@
         <v>1085</v>
       </c>
       <c r="G635" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="636" spans="1:7">
@@ -19459,7 +19463,7 @@
         <v>1085</v>
       </c>
       <c r="G637" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="638" spans="1:7">
@@ -19507,7 +19511,7 @@
         <v>1085</v>
       </c>
       <c r="G639" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="640" spans="1:7">
@@ -19555,7 +19559,7 @@
         <v>1085</v>
       </c>
       <c r="G641" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="642" spans="1:7">
@@ -19603,7 +19607,7 @@
         <v>1085</v>
       </c>
       <c r="G643" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="644" spans="1:7">
@@ -19627,7 +19631,7 @@
         <v>1081</v>
       </c>
       <c r="G644" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="645" spans="1:7">
@@ -19651,7 +19655,7 @@
         <v>1085</v>
       </c>
       <c r="G645" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="646" spans="1:7">
@@ -19675,7 +19679,7 @@
         <v>1081</v>
       </c>
       <c r="G646" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="647" spans="1:7">
@@ -19699,7 +19703,7 @@
         <v>1085</v>
       </c>
       <c r="G647" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="648" spans="1:7">
@@ -19723,7 +19727,7 @@
         <v>1081</v>
       </c>
       <c r="G648" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="649" spans="1:7">
@@ -19747,7 +19751,7 @@
         <v>1085</v>
       </c>
       <c r="G649" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="650" spans="1:7">
@@ -19771,7 +19775,7 @@
         <v>1081</v>
       </c>
       <c r="G650" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="651" spans="1:7">
@@ -19795,7 +19799,7 @@
         <v>1085</v>
       </c>
       <c r="G651" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="652" spans="1:7">
@@ -19819,7 +19823,7 @@
         <v>1081</v>
       </c>
       <c r="G652" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="653" spans="1:7">
@@ -19843,7 +19847,7 @@
         <v>1085</v>
       </c>
       <c r="G653" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="654" spans="1:7">
@@ -19867,7 +19871,7 @@
         <v>1081</v>
       </c>
       <c r="G654" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="655" spans="1:7">
@@ -19891,7 +19895,7 @@
         <v>1085</v>
       </c>
       <c r="G655" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="656" spans="1:7">
@@ -19915,7 +19919,7 @@
         <v>1081</v>
       </c>
       <c r="G656" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="657" spans="1:7">
@@ -19939,7 +19943,7 @@
         <v>1085</v>
       </c>
       <c r="G657" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="658" spans="1:7">
@@ -19963,7 +19967,7 @@
         <v>1081</v>
       </c>
       <c r="G658" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="659" spans="1:7">
@@ -20011,7 +20015,7 @@
         <v>1074</v>
       </c>
       <c r="G660" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="661" spans="1:7">
@@ -20035,7 +20039,7 @@
         <v>1074</v>
       </c>
       <c r="G661" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="662" spans="1:7">
@@ -20059,7 +20063,7 @@
         <v>1074</v>
       </c>
       <c r="G662" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="663" spans="1:7">
@@ -20083,7 +20087,7 @@
         <v>1074</v>
       </c>
       <c r="G663" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="664" spans="1:7">
@@ -20107,7 +20111,7 @@
         <v>1074</v>
       </c>
       <c r="G664" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="665" spans="1:7">
@@ -20131,7 +20135,7 @@
         <v>1076</v>
       </c>
       <c r="G665" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="666" spans="1:7">
@@ -20225,7 +20229,7 @@
         <v>1076</v>
       </c>
       <c r="G669" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="670" spans="1:7">
@@ -20319,7 +20323,7 @@
         <v>1076</v>
       </c>
       <c r="G673" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="674" spans="1:7">
@@ -20413,7 +20417,7 @@
         <v>1074</v>
       </c>
       <c r="G677" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="678" spans="1:7">
@@ -20437,7 +20441,7 @@
         <v>1076</v>
       </c>
       <c r="G678" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="679" spans="1:7">
@@ -20461,7 +20465,7 @@
         <v>1074</v>
       </c>
       <c r="G679" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="680" spans="1:7">
@@ -20485,7 +20489,7 @@
         <v>1074</v>
       </c>
       <c r="G680" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="681" spans="1:7">
@@ -20557,7 +20561,7 @@
         <v>1083</v>
       </c>
       <c r="G683" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="684" spans="1:7">
@@ -20797,7 +20801,7 @@
         <v>1076</v>
       </c>
       <c r="G693" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="694" spans="1:7">
@@ -20845,7 +20849,7 @@
         <v>1076</v>
       </c>
       <c r="G695" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="696" spans="1:7">
@@ -20989,7 +20993,7 @@
         <v>1076</v>
       </c>
       <c r="G701" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="702" spans="1:7">
@@ -21037,7 +21041,7 @@
         <v>1076</v>
       </c>
       <c r="G703" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="704" spans="1:7">
@@ -21108,7 +21112,7 @@
         <v>1073</v>
       </c>
       <c r="G706" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="707" spans="1:7">
@@ -21132,7 +21136,7 @@
         <v>1076</v>
       </c>
       <c r="G707" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="708" spans="1:7">
@@ -21156,7 +21160,7 @@
         <v>1074</v>
       </c>
       <c r="G708" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="709" spans="1:7">
@@ -21249,7 +21253,7 @@
         <v>1076</v>
       </c>
       <c r="G712" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="713" spans="1:7">
@@ -21320,7 +21324,7 @@
         <v>1073</v>
       </c>
       <c r="G715" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="716" spans="1:7">
@@ -21344,7 +21348,7 @@
         <v>1073</v>
       </c>
       <c r="G716" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="717" spans="1:7">
@@ -21368,7 +21372,7 @@
         <v>1076</v>
       </c>
       <c r="G717" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="718" spans="1:7">
@@ -21416,7 +21420,7 @@
         <v>1073</v>
       </c>
       <c r="G719" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="720" spans="1:7">
@@ -21463,7 +21467,7 @@
         <v>1076</v>
       </c>
       <c r="G721" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="722" spans="1:7">
@@ -21511,7 +21515,7 @@
         <v>1076</v>
       </c>
       <c r="G723" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="724" spans="1:7">
@@ -21582,7 +21586,7 @@
         <v>1073</v>
       </c>
       <c r="G726" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="727" spans="1:7">
@@ -21606,7 +21610,7 @@
         <v>1076</v>
       </c>
       <c r="G727" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="728" spans="1:7">
@@ -21630,7 +21634,7 @@
         <v>1074</v>
       </c>
       <c r="G728" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="729" spans="1:7">
@@ -21723,7 +21727,7 @@
         <v>1076</v>
       </c>
       <c r="G732" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="733" spans="1:7">
@@ -21771,7 +21775,7 @@
         <v>1076</v>
       </c>
       <c r="G734" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="735" spans="1:7">
@@ -21819,7 +21823,7 @@
         <v>1076</v>
       </c>
       <c r="G736" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="737" spans="1:7">
@@ -21867,7 +21871,7 @@
         <v>1076</v>
       </c>
       <c r="G738" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="739" spans="1:7">
@@ -21915,7 +21919,7 @@
         <v>1076</v>
       </c>
       <c r="G740" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="741" spans="1:7">
@@ -21986,7 +21990,7 @@
         <v>1073</v>
       </c>
       <c r="G743" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="744" spans="1:7">
@@ -22010,7 +22014,7 @@
         <v>1076</v>
       </c>
       <c r="G744" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="745" spans="1:7">
@@ -22034,7 +22038,7 @@
         <v>1074</v>
       </c>
       <c r="G745" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="746" spans="1:7">
@@ -22127,7 +22131,7 @@
         <v>1085</v>
       </c>
       <c r="G749" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="750" spans="1:7">
@@ -22151,7 +22155,7 @@
         <v>1081</v>
       </c>
       <c r="G750" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="751" spans="1:7">
@@ -22175,7 +22179,7 @@
         <v>1076</v>
       </c>
       <c r="G751" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="752" spans="1:7">
@@ -22199,7 +22203,7 @@
         <v>1074</v>
       </c>
       <c r="G752" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="753" spans="1:7">
@@ -22223,7 +22227,7 @@
         <v>1076</v>
       </c>
       <c r="G753" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="754" spans="1:7">
@@ -22271,7 +22275,7 @@
         <v>1076</v>
       </c>
       <c r="G755" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="756" spans="1:7">
@@ -22295,7 +22299,7 @@
         <v>1074</v>
       </c>
       <c r="G756" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="757" spans="1:7">
@@ -22319,7 +22323,7 @@
         <v>1076</v>
       </c>
       <c r="G757" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="758" spans="1:7">
@@ -22343,7 +22347,7 @@
         <v>1074</v>
       </c>
       <c r="G758" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="759" spans="1:7">
@@ -22367,7 +22371,7 @@
         <v>1076</v>
       </c>
       <c r="G759" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="760" spans="1:7">
@@ -22391,7 +22395,7 @@
         <v>1074</v>
       </c>
       <c r="G760" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="761" spans="1:7">
@@ -22415,7 +22419,7 @@
         <v>1076</v>
       </c>
       <c r="G761" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="762" spans="1:7">
@@ -22439,7 +22443,7 @@
         <v>1074</v>
       </c>
       <c r="G762" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="763" spans="1:7">
@@ -22463,7 +22467,7 @@
         <v>1076</v>
       </c>
       <c r="G763" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="764" spans="1:7">
@@ -22487,7 +22491,7 @@
         <v>1074</v>
       </c>
       <c r="G764" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="765" spans="1:7">
@@ -22511,7 +22515,7 @@
         <v>1076</v>
       </c>
       <c r="G765" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="766" spans="1:7">
@@ -22535,7 +22539,7 @@
         <v>1074</v>
       </c>
       <c r="G766" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="767" spans="1:7">
@@ -22559,7 +22563,7 @@
         <v>1074</v>
       </c>
       <c r="G767" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="768" spans="1:7">
@@ -22583,7 +22587,7 @@
         <v>1076</v>
       </c>
       <c r="G768" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="769" spans="1:7">
@@ -22607,7 +22611,7 @@
         <v>1074</v>
       </c>
       <c r="G769" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="770" spans="1:7">
@@ -22631,7 +22635,7 @@
         <v>1074</v>
       </c>
       <c r="G770" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="771" spans="1:7">
@@ -22655,7 +22659,7 @@
         <v>1076</v>
       </c>
       <c r="G771" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="772" spans="1:7">
@@ -22679,7 +22683,7 @@
         <v>1074</v>
       </c>
       <c r="G772" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="773" spans="1:7">
@@ -22703,7 +22707,7 @@
         <v>1074</v>
       </c>
       <c r="G773" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="774" spans="1:7">
@@ -22727,7 +22731,7 @@
         <v>1076</v>
       </c>
       <c r="G774" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="775" spans="1:7">
@@ -22751,7 +22755,7 @@
         <v>1074</v>
       </c>
       <c r="G775" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="776" spans="1:7">
@@ -22775,7 +22779,7 @@
         <v>1076</v>
       </c>
       <c r="G776" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="777" spans="1:7">
@@ -22823,7 +22827,7 @@
         <v>1076</v>
       </c>
       <c r="G778" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="779" spans="1:7">
@@ -22871,7 +22875,7 @@
         <v>1076</v>
       </c>
       <c r="G780" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="781" spans="1:7">
@@ -22895,7 +22899,7 @@
         <v>1074</v>
       </c>
       <c r="G781" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="782" spans="1:7">
@@ -22942,7 +22946,7 @@
         <v>1073</v>
       </c>
       <c r="G783" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="784" spans="1:7">
@@ -22966,7 +22970,7 @@
         <v>1074</v>
       </c>
       <c r="G784" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="785" spans="1:7">
@@ -22990,7 +22994,7 @@
         <v>1076</v>
       </c>
       <c r="G785" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="786" spans="1:7">
@@ -23014,7 +23018,7 @@
         <v>1074</v>
       </c>
       <c r="G786" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="787" spans="1:7">
@@ -23038,7 +23042,7 @@
         <v>1076</v>
       </c>
       <c r="G787" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="788" spans="1:7">
@@ -23062,7 +23066,7 @@
         <v>1074</v>
       </c>
       <c r="G788" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="789" spans="1:7">
@@ -23086,7 +23090,7 @@
         <v>1085</v>
       </c>
       <c r="G789" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="790" spans="1:7">
@@ -23134,7 +23138,7 @@
         <v>1083</v>
       </c>
       <c r="G791" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="792" spans="1:7">
@@ -23182,7 +23186,7 @@
         <v>1083</v>
       </c>
       <c r="G793" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="794" spans="1:7">
@@ -23230,7 +23234,7 @@
         <v>1083</v>
       </c>
       <c r="G795" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="796" spans="1:7">
@@ -23278,7 +23282,7 @@
         <v>1085</v>
       </c>
       <c r="G797" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="798" spans="1:7">
@@ -23326,7 +23330,7 @@
         <v>1085</v>
       </c>
       <c r="G799" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="800" spans="1:7">
@@ -23350,7 +23354,7 @@
         <v>1081</v>
       </c>
       <c r="G800" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="801" spans="1:7">
@@ -23518,7 +23522,7 @@
         <v>1083</v>
       </c>
       <c r="G807" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="808" spans="1:7">
@@ -23566,7 +23570,7 @@
         <v>1085</v>
       </c>
       <c r="G809" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="810" spans="1:7">
@@ -23612,7 +23616,7 @@
         <v>1073</v>
       </c>
       <c r="G811" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="812" spans="1:7">
@@ -23635,7 +23639,7 @@
         <v>1073</v>
       </c>
       <c r="G812" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="813" spans="1:7">
@@ -23659,7 +23663,7 @@
         <v>1085</v>
       </c>
       <c r="G813" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="814" spans="1:7">
@@ -23705,7 +23709,7 @@
         <v>1073</v>
       </c>
       <c r="G815" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="816" spans="1:7">
@@ -23728,7 +23732,7 @@
         <v>1073</v>
       </c>
       <c r="G816" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="817" spans="1:7">
@@ -23752,7 +23756,7 @@
         <v>1083</v>
       </c>
       <c r="G817" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="818" spans="1:7">
@@ -23800,7 +23804,7 @@
         <v>1085</v>
       </c>
       <c r="G819" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="820" spans="1:7">
@@ -23848,7 +23852,7 @@
         <v>1085</v>
       </c>
       <c r="G821" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="822" spans="1:7">
@@ -23872,7 +23876,7 @@
         <v>1081</v>
       </c>
       <c r="G822" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="823" spans="1:7">
@@ -23896,7 +23900,7 @@
         <v>1074</v>
       </c>
       <c r="G823" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="824" spans="1:7">
@@ -23920,7 +23924,7 @@
         <v>1084</v>
       </c>
       <c r="G824" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="825" spans="1:7">
@@ -23944,7 +23948,7 @@
         <v>1084</v>
       </c>
       <c r="G825" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="826" spans="1:7">
@@ -23968,7 +23972,7 @@
         <v>1084</v>
       </c>
       <c r="G826" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="827" spans="1:7">
@@ -23992,7 +23996,7 @@
         <v>1084</v>
       </c>
       <c r="G827" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="828" spans="1:7">
@@ -24016,7 +24020,7 @@
         <v>1084</v>
       </c>
       <c r="G828" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="829" spans="1:7">
@@ -24040,7 +24044,7 @@
         <v>1084</v>
       </c>
       <c r="G829" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="830" spans="1:7">
@@ -24064,7 +24068,7 @@
         <v>1084</v>
       </c>
       <c r="G830" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="831" spans="1:7">
@@ -24088,7 +24092,7 @@
         <v>1084</v>
       </c>
       <c r="G831" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="832" spans="1:7">
@@ -24232,7 +24236,7 @@
         <v>1074</v>
       </c>
       <c r="G837" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="838" spans="1:7">
@@ -24352,7 +24356,7 @@
         <v>1074</v>
       </c>
       <c r="G842" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="843" spans="1:7">
@@ -24376,7 +24380,7 @@
         <v>1074</v>
       </c>
       <c r="G843" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="844" spans="1:7">
@@ -24400,7 +24404,7 @@
         <v>1074</v>
       </c>
       <c r="G844" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="845" spans="1:7">
@@ -24424,7 +24428,7 @@
         <v>1074</v>
       </c>
       <c r="G845" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="846" spans="1:7">
@@ -24448,7 +24452,7 @@
         <v>1074</v>
       </c>
       <c r="G846" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="847" spans="1:7">
@@ -24472,7 +24476,7 @@
         <v>1074</v>
       </c>
       <c r="G847" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="848" spans="1:7">
@@ -24520,7 +24524,7 @@
         <v>1074</v>
       </c>
       <c r="G849" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="850" spans="1:7">
@@ -24544,7 +24548,7 @@
         <v>1074</v>
       </c>
       <c r="G850" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="851" spans="1:7">
@@ -24568,7 +24572,7 @@
         <v>1074</v>
       </c>
       <c r="G851" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="852" spans="1:7">
@@ -24592,7 +24596,7 @@
         <v>1074</v>
       </c>
       <c r="G852" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="853" spans="1:7">
@@ -24664,7 +24668,7 @@
         <v>1074</v>
       </c>
       <c r="G855" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="856" spans="1:7">
@@ -24712,7 +24716,7 @@
         <v>1074</v>
       </c>
       <c r="G857" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="858" spans="1:7">
@@ -24736,7 +24740,7 @@
         <v>1074</v>
       </c>
       <c r="G858" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="859" spans="1:7">
@@ -24808,7 +24812,7 @@
         <v>1074</v>
       </c>
       <c r="G861" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="862" spans="1:7">
@@ -24856,7 +24860,7 @@
         <v>1074</v>
       </c>
       <c r="G863" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="864" spans="1:7">
@@ -24880,7 +24884,7 @@
         <v>1074</v>
       </c>
       <c r="G864" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="865" spans="1:7">
@@ -24904,7 +24908,7 @@
         <v>1074</v>
       </c>
       <c r="G865" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="866" spans="1:7">
@@ -24928,7 +24932,7 @@
         <v>1074</v>
       </c>
       <c r="G866" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="867" spans="1:7">
@@ -24952,7 +24956,7 @@
         <v>1074</v>
       </c>
       <c r="G867" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="868" spans="1:7">
@@ -24976,7 +24980,7 @@
         <v>1074</v>
       </c>
       <c r="G868" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="869" spans="1:7">
@@ -25000,7 +25004,7 @@
         <v>1074</v>
       </c>
       <c r="G869" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="870" spans="1:7">
@@ -25024,7 +25028,7 @@
         <v>1074</v>
       </c>
       <c r="G870" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="871" spans="1:7">
@@ -25048,7 +25052,7 @@
         <v>1074</v>
       </c>
       <c r="G871" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="872" spans="1:7">
@@ -25072,7 +25076,7 @@
         <v>1074</v>
       </c>
       <c r="G872" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="873" spans="1:7">
